--- a/ww09/w09-AssignDataSet.xlsx
+++ b/ww09/w09-AssignDataSet.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wcupa-my.sharepoint.com/personal/cpeng_wcupa_edu/Documents/Desktop/cpeng/WCU-Teaching/2023Spring/STA321/ww09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wcupa-my.sharepoint.com/personal/cpeng_wcupa_edu/Documents/Desktop/cpeng/WCU-Teaching/2023Fall/STA321/ww09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{D1333E5A-BA65-4EB6-A33C-309AEFDD106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3BD9AEA-82ED-4510-BB20-C94E5F8680F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B9EF106D-D728-479F-90FC-CB79D38253A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="825" windowWidth="26430" windowHeight="14265" tabRatio="791" activeTab="6" xr2:uid="{ED501E24-9DEC-4177-9C52-990A9FB88C25}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="791" firstSheet="1" activeTab="9" xr2:uid="{ED501E24-9DEC-4177-9C52-990A9FB88C25}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lafrance" sheetId="2" r:id="rId1"/>
-    <sheet name="Liu" sheetId="3" r:id="rId2"/>
-    <sheet name="McKee" sheetId="4" r:id="rId3"/>
-    <sheet name="Neff" sheetId="5" r:id="rId4"/>
-    <sheet name="Ross" sheetId="6" r:id="rId5"/>
-    <sheet name="Saporito" sheetId="7" r:id="rId6"/>
-    <sheet name="Shin" sheetId="8" r:id="rId7"/>
-    <sheet name="Weber" sheetId="9" r:id="rId8"/>
-    <sheet name="Zhang" sheetId="10" r:id="rId9"/>
-    <sheet name="Laughlin" sheetId="12" r:id="rId10"/>
+    <sheet name="data1" sheetId="2" r:id="rId1"/>
+    <sheet name="data2" sheetId="3" r:id="rId2"/>
+    <sheet name="data3" sheetId="4" r:id="rId3"/>
+    <sheet name="data4" sheetId="5" r:id="rId4"/>
+    <sheet name="data5" sheetId="6" r:id="rId5"/>
+    <sheet name="data6" sheetId="7" r:id="rId6"/>
+    <sheet name="data7" sheetId="8" r:id="rId7"/>
+    <sheet name="data8" sheetId="9" r:id="rId8"/>
+    <sheet name="data9" sheetId="10" r:id="rId9"/>
+    <sheet name="data10" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1021,17 +1021,17 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>42826</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42827</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>13033</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42828</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>16325</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42829</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>6581</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>42830</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>17991</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42831</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42832</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>10341</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42833</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42834</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>42835</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>21295</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>42836</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>24714</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>42837</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>19355</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>42838</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>20880</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>42839</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>18015</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>42840</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>14362</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>42841</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>16408</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>42842</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>21086</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>42843</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>22459</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>42844</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>15827</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>42845</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>12290</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>42846</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>10914</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>42847</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>8944</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>42848</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>15740</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>42849</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>17855</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>42850</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>42851</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>9819</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>42852</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>18581</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>42853</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>22787</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>42854</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="40">
         <v>42855</v>
       </c>
@@ -1753,21 +1753,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2E55A4-6C97-4570-BC7A-F6126CABE2D0}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>43009</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>43010</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>23784</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>43011</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>43012</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>25477</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>43013</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>23942</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>43014</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>22197</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>43015</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>18218</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>43016</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>9174</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>43017</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>8940</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>43018</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>26050</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>43019</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>20657</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>43020</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>18140</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>43021</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>20554</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>43022</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>14712</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>43023</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>15190</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>43024</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>19939</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>43025</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>20885</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>43026</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>23023</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>43027</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>24034</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>43028</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>22484</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>43029</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>18479</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>43030</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>17513</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>43031</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>22931</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>43032</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>43033</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>23237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>43034</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>18751</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>43035</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>20391</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>43036</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>15938</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>43037</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>43038</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>10865</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="53">
         <v>43039</v>
       </c>
@@ -2516,16 +2516,16 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>42826</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42827</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>13033</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42828</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>16325</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42829</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>6581</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>42830</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>17991</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42831</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42832</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>10341</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42833</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42834</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>42835</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>21295</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>42836</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>24714</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>42837</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>19355</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>42838</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>20880</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>42839</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>18015</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>42840</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>14362</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>42841</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>16408</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>42842</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>21086</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>42843</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>22459</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>42844</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>15827</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>42845</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>12290</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>42846</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>10914</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>42847</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>8944</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>42848</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>15740</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>42849</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>17855</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>42850</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>42851</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>9819</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>42852</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>18581</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>42853</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>22787</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>42854</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="40">
         <v>42855</v>
       </c>
@@ -3251,18 +3251,18 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>42826</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42827</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>13033</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42828</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>16325</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42829</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>6581</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>42830</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>17991</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42831</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42832</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>10341</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42833</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42834</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>14899</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>42835</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>21295</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>42836</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>24714</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>42837</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>19355</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>42838</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>20880</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>42839</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>18015</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>42840</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>14362</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>42841</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>16408</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>42842</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>21086</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>42843</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>22459</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>42844</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>15827</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>42845</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>12290</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>42846</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>10914</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>42847</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>8944</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>42848</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>15740</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>42849</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>17855</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>42850</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>42851</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>9819</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>42852</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>18581</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>42853</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>22787</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>42854</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>19043</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="40">
         <v>42855</v>
       </c>
@@ -3988,16 +3988,16 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>42917</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>11867</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42918</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>13995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42919</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>16067</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42920</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>13925</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>42921</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>23110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42922</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>21861</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42923</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>12805</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42924</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>17258</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42925</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>18320</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>42926</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>24827</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>42927</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>21743</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>42928</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>21174</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>42929</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>18290</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>42930</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>8210</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>42931</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>17259</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>42932</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>17539</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>42933</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>23837</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>42934</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>25038</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>42935</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>22847</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>42936</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>20405</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>42937</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>19773</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>42938</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>14422</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>42939</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>13297</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>42940</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>11862</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>42941</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>23586</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>42942</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>26969</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>42943</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>23129</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>42944</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>21741</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>42945</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>14814</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>42946</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>18696</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="53">
         <v>42947</v>
       </c>
@@ -4746,16 +4746,16 @@
       <selection activeCell="I14" sqref="I14:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>42917</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>11867</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42918</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>13995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42919</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>16067</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42920</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>13925</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>42921</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>23110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42922</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>21861</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42923</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>12805</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42924</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>17258</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42925</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>18320</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>42926</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>24827</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>42927</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>21743</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>42928</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>21174</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>42929</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>18290</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>42930</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>8210</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>42931</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>17259</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>42932</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>17539</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>42933</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>23837</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>42934</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>25038</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>42935</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>22847</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>42936</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>20405</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>42937</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>19773</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>42938</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>14422</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>42939</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>13297</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>42940</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>11862</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>42941</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>23586</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>42942</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>26969</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>42943</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>23129</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>42944</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>21741</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>42945</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>14814</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>42946</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>18696</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="53">
         <v>42947</v>
       </c>
@@ -5504,15 +5504,15 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="7" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="7" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>42917</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>11867</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42918</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>13995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42919</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>16067</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42920</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>13925</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>42921</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>23110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42922</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>21861</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42923</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>12805</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42924</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>17258</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42925</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>18320</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>42926</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>24827</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>42927</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>21743</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>42928</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>21174</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>42929</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>18290</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>42930</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>8210</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>42931</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>17259</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>42932</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>17539</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>42933</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>23837</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>42934</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>25038</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>42935</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>22847</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>42936</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>20405</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>42937</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>19773</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>42938</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>14422</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>42939</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>13297</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>42940</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>11862</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>42941</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>23586</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>42942</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>26969</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>42943</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>23129</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>42944</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>21741</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>42945</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>14814</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>42946</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>18696</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="53">
         <v>42947</v>
       </c>
@@ -6257,20 +6257,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99CCD06-791B-4464-A796-F9D748B9D324}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>42917</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>11867</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>42918</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>13995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>42919</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>16067</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>42920</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>13925</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>42921</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>23110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>42922</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>21861</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>42923</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>12805</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>42924</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>17258</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>42925</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>18320</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>42926</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>24827</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>42927</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>21743</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>42928</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>21174</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>42929</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>18290</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>42930</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>8210</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>42931</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>17259</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>42932</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>17539</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>42933</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>23837</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>42934</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>25038</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>42935</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>22847</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>42936</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>20405</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>42937</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>19773</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>42938</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>14422</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>42939</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>13297</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>42940</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>11862</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>42941</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>23586</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>42942</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>26969</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>42943</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>23129</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>42944</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>21741</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>42945</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>14814</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>42946</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>18696</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="53">
         <v>42947</v>
       </c>
@@ -7019,16 +7019,16 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>43009</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>43010</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>23784</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>43011</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>43012</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>25477</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>43013</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>23942</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>43014</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>22197</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>43015</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>18218</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>43016</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>9174</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>43017</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>8940</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>43018</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>26050</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>43019</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>20657</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>43020</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>18140</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>43021</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>20554</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>43022</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>14712</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>43023</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>15190</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>43024</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>19939</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>43025</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>20885</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>43026</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>23023</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>43027</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>24034</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>43028</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>22484</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>43029</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>18479</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>43030</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>17513</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>43031</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>22931</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>43032</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>43033</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>23237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>43034</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>18751</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>43035</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>20391</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>43036</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>15938</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>43037</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>43038</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>10865</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="53">
         <v>43039</v>
       </c>
@@ -7777,15 +7777,15 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>43009</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>43010</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>23784</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>43011</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>43012</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>25477</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>43013</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>23942</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>43014</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>22197</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>43015</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>18218</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>43016</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>9174</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>43017</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>8940</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>43018</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>26050</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>43019</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>20657</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>43020</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>18140</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>43021</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>20554</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>43022</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>14712</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>43023</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>15190</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>43024</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>19939</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>43025</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>20885</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>43026</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>23023</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>43027</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>24034</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>43028</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>22484</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>43029</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>18479</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>43030</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>17513</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>43031</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>22931</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>43032</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>9501</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28">
         <v>43033</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>23237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>43034</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>18751</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="28">
         <v>43035</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>20391</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>43036</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>15938</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>43037</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>43038</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>10865</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="53">
         <v>43039</v>
       </c>
